--- a/nba2k_editor/Offsets/ImportShoes.xlsx
+++ b/nba2k_editor/Offsets/ImportShoes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shoes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shoes Vitals" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shoes Gear" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Shoes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Shoes Vitals" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Shoes Gear" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,16 +19,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,7 +36,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -47,21 +44,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,17 +424,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Shoe Away Colorway</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Shoe Home Colorway</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Shoe Locked Vendor</t>
         </is>
@@ -472,12 +460,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -503,102 +491,102 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>MYPLAYER_CLOTHES_TYPE</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>PREGAME_OUTFIT</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>SHIRTS_ITEM_FREQUENCY</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>SHOE_AWAY</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>SHOE_AWAY_COLORWAY_ID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>SHOE_HOME</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>SHOE_HOME_COLORWAY_ID</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>SHOE_LOCKED_VENDOR</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>SHORTS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>SHORTS_COLOR_AWAY</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>SHORTS_COLOR_HOME</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>SHORTS_LENGTH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>SHORTS_PREFERRED_LENGTH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>SOCK_COLOR_AWAY</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>SOCK_COLOR_HOME</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>SOCK_LENGTH_AWAY</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>SOCK_LENGTH_HOME</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>UNDERSHIRT</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>UNDERSHIRT_COLOR_AWAY</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>UNDERSHIRT_COLOR_HOME</t>
         </is>

--- a/nba2k_editor/Offsets/ImportShoes.xlsx
+++ b/nba2k_editor/Offsets/ImportShoes.xlsx
@@ -7,9 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Shoes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Shoes Vitals" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Shoes Gear" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Shoes Gear" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,73 +413,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Shoe Away Colorway</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Shoe Home Colorway</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Shoe Locked Vendor</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
